--- a/teaching/traditional_assets/database/data/turkey/turkey_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/turkey/turkey_bank_money_center.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AQ13"/>
+  <dimension ref="A1:AQ12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -582,7 +582,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>10</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.134</v>
+        <v>0.163</v>
       </c>
       <c r="E2">
-        <v>0.166</v>
+        <v>0.1575</v>
       </c>
       <c r="F2">
-        <v>0.15</v>
+        <v>0.1995</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -612,85 +612,82 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>5220.4</v>
+        <v>4897</v>
       </c>
       <c r="L2">
-        <v>0.2543075521607178</v>
+        <v>0.2862169333816498</v>
       </c>
       <c r="M2">
-        <v>0.025</v>
+        <v>0</v>
       </c>
       <c r="N2">
-        <v>4.990518015770037e-07</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>4.788905064745997e-06</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>0.024</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>4.790897295139236e-07</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>4.597348862156157e-06</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0.001</v>
-      </c>
-      <c r="T2">
-        <v>0.04</v>
+        <v>0</v>
       </c>
       <c r="U2">
-        <v>43668.3</v>
+        <v>36968.2</v>
       </c>
       <c r="V2">
-        <v>0.8717097514722029</v>
+        <v>0.660049778425302</v>
       </c>
       <c r="W2">
-        <v>0.1245907577425152</v>
+        <v>0.08712094340328377</v>
       </c>
       <c r="X2">
-        <v>0.1543049525142534</v>
+        <v>0.1790046810515197</v>
       </c>
       <c r="Y2">
-        <v>-0.02971419477173813</v>
+        <v>-0.0918837376482359</v>
       </c>
       <c r="Z2">
-        <v>0.1393267871686354</v>
+        <v>0.1352626121234747</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.08389587155374099</v>
+        <v>0.08735172501859807</v>
       </c>
       <c r="AC2">
-        <v>-0.08389587155374099</v>
+        <v>-0.08735172501859807</v>
       </c>
       <c r="AD2">
-        <v>126351.6</v>
+        <v>123633.6</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>126351.6</v>
+        <v>123633.6</v>
       </c>
       <c r="AG2">
-        <v>82683.29999999999</v>
+        <v>86665.39999999999</v>
       </c>
       <c r="AH2">
-        <v>0.7160897404653873</v>
+        <v>0.6882228968981606</v>
       </c>
       <c r="AI2">
-        <v>0.7073413092730235</v>
+        <v>0.731049758777752</v>
       </c>
       <c r="AJ2">
-        <v>0.6227169650462462</v>
+        <v>0.6074382366464434</v>
       </c>
       <c r="AK2">
-        <v>0.6126476912521136</v>
+        <v>0.6558123098274153</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -716,10 +713,10 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.169</v>
+        <v>0.149</v>
       </c>
       <c r="E3">
-        <v>0.32</v>
+        <v>0.239</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -734,10 +731,10 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>498.2</v>
+        <v>359.7</v>
       </c>
       <c r="L3">
-        <v>0.3819087773093139</v>
+        <v>0.3517504400547624</v>
       </c>
       <c r="M3">
         <v>-0</v>
@@ -761,55 +758,55 @@
         <v>0</v>
       </c>
       <c r="U3">
-        <v>2651.5</v>
+        <v>2118.6</v>
       </c>
       <c r="V3">
-        <v>0.1255920803334596</v>
+        <v>0.06676120249574588</v>
       </c>
       <c r="W3">
-        <v>0.2080427610974235</v>
+        <v>0.1281804575582638</v>
       </c>
       <c r="X3">
-        <v>0.07145894656204847</v>
+        <v>0.07190161705825673</v>
       </c>
       <c r="Y3">
-        <v>0.136583814535375</v>
+        <v>0.05627884050000712</v>
       </c>
       <c r="Z3">
-        <v>0.138761833847463</v>
+        <v>0.106447650573564</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.06970406876972929</v>
+        <v>0.07257402765932777</v>
       </c>
       <c r="AC3">
-        <v>-0.06970406876972929</v>
+        <v>-0.07257402765932777</v>
       </c>
       <c r="AD3">
-        <v>9451.9</v>
+        <v>9077.200000000001</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>9451.9</v>
+        <v>9077.200000000001</v>
       </c>
       <c r="AG3">
-        <v>6800.4</v>
+        <v>6958.6</v>
       </c>
       <c r="AH3">
-        <v>0.3092504556028517</v>
+        <v>0.2224193358685851</v>
       </c>
       <c r="AI3">
-        <v>0.7709920550761049</v>
+        <v>0.7969306948078173</v>
       </c>
       <c r="AJ3">
-        <v>0.2436336538599332</v>
+        <v>0.1798431741469945</v>
       </c>
       <c r="AK3">
-        <v>0.7077925457175865</v>
+        <v>0.7505284956210363</v>
       </c>
       <c r="AL3">
         <v>0</v>
@@ -826,7 +823,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>ICBC Turkey Bank A.S. (IBSE:ICBCT)</t>
+          <t>Sekerbank T.A.S. (IBSE:SKBNK)</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -835,10 +832,7 @@
         </is>
       </c>
       <c r="D4">
-        <v>0.276</v>
-      </c>
-      <c r="E4">
-        <v>1.161</v>
+        <v>-0.0317</v>
       </c>
       <c r="G4">
         <v>0</v>
@@ -853,10 +847,10 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>11.5</v>
+        <v>-51.8</v>
       </c>
       <c r="L4">
-        <v>0.1367419738406659</v>
+        <v>-0.4249384741591468</v>
       </c>
       <c r="M4">
         <v>-0</v>
@@ -865,7 +859,7 @@
         <v>-0</v>
       </c>
       <c r="O4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="P4">
         <v>-0</v>
@@ -874,61 +868,61 @@
         <v>-0</v>
       </c>
       <c r="R4">
-        <v>-0</v>
+        <v>0</v>
       </c>
       <c r="S4">
         <v>0</v>
       </c>
       <c r="U4">
-        <v>878.7</v>
+        <v>668.2</v>
       </c>
       <c r="V4">
-        <v>1.153603781016148</v>
+        <v>1.768660667019587</v>
       </c>
       <c r="W4">
-        <v>0.06156316916488222</v>
+        <v>-0.137037037037037</v>
       </c>
       <c r="X4">
-        <v>0.09732299157216734</v>
+        <v>0.129320396423773</v>
       </c>
       <c r="Y4">
-        <v>-0.03575982240728512</v>
+        <v>-0.26635743346081</v>
       </c>
       <c r="Z4">
-        <v>0.07639898255813951</v>
+        <v>0.2297832233741754</v>
       </c>
       <c r="AA4">
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.07563378395868073</v>
+        <v>0.08265669810736317</v>
       </c>
       <c r="AC4">
-        <v>-0.07563378395868073</v>
+        <v>-0.08265669810736317</v>
       </c>
       <c r="AD4">
-        <v>993.1</v>
+        <v>714.4</v>
       </c>
       <c r="AE4">
         <v>0</v>
       </c>
       <c r="AF4">
-        <v>993.1</v>
+        <v>714.4</v>
       </c>
       <c r="AG4">
-        <v>114.4</v>
+        <v>46.19999999999993</v>
       </c>
       <c r="AH4">
-        <v>0.5659334397082288</v>
+        <v>0.6540926570225233</v>
       </c>
       <c r="AI4">
-        <v>0.8130167826442898</v>
+        <v>0.7178456591639871</v>
       </c>
       <c r="AJ4">
-        <v>0.1305787010615226</v>
+        <v>0.1089622641509432</v>
       </c>
       <c r="AK4">
-        <v>0.3337222870478413</v>
+        <v>0.1412844036697246</v>
       </c>
       <c r="AL4">
         <v>0</v>
@@ -945,7 +939,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Turkiye Garanti Bankasi A.S. (IBSE:GARAN)</t>
+          <t>ICBC Turkey Bank A.S. (IBSE:ICBCT)</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -954,13 +948,7 @@
         </is>
       </c>
       <c r="D5">
-        <v>0.125</v>
-      </c>
-      <c r="E5">
-        <v>0.137</v>
-      </c>
-      <c r="F5">
-        <v>0.159</v>
+        <v>0.423</v>
       </c>
       <c r="G5">
         <v>0</v>
@@ -975,10 +963,10 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>1063.8</v>
+        <v>13.6</v>
       </c>
       <c r="L5">
-        <v>0.3526252983293556</v>
+        <v>0.1654501216545012</v>
       </c>
       <c r="M5">
         <v>-0</v>
@@ -1002,55 +990,55 @@
         <v>0</v>
       </c>
       <c r="U5">
-        <v>7648</v>
+        <v>453.4</v>
       </c>
       <c r="V5">
-        <v>0.9726567467887575</v>
+        <v>0.6023648199814002</v>
       </c>
       <c r="W5">
-        <v>0.1378908072795147</v>
+        <v>0.0595446584938704</v>
       </c>
       <c r="X5">
-        <v>0.1094686672660619</v>
+        <v>0.1265580403251879</v>
       </c>
       <c r="Y5">
-        <v>0.02842214001345278</v>
+        <v>-0.06701338183131746</v>
       </c>
       <c r="Z5">
-        <v>0.164246452433426</v>
+        <v>0.2397899649941657</v>
       </c>
       <c r="AA5">
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.07578231561742474</v>
+        <v>0.08567052455282458</v>
       </c>
       <c r="AC5">
-        <v>-0.07578231561742474</v>
+        <v>-0.08567052455282458</v>
       </c>
       <c r="AD5">
-        <v>13412.8</v>
+        <v>1365.2</v>
       </c>
       <c r="AE5">
         <v>0</v>
       </c>
       <c r="AF5">
-        <v>13412.8</v>
+        <v>1365.2</v>
       </c>
       <c r="AG5">
-        <v>5764.799999999999</v>
+        <v>911.8000000000001</v>
       </c>
       <c r="AH5">
-        <v>0.6304251779016535</v>
+        <v>0.6446007837952689</v>
       </c>
       <c r="AI5">
-        <v>0.5937205359632776</v>
+        <v>0.8821970920840065</v>
       </c>
       <c r="AJ5">
-        <v>0.4230176550873949</v>
+        <v>0.5477921297686994</v>
       </c>
       <c r="AK5">
-        <v>0.3857834050498223</v>
+        <v>0.8333790329951558</v>
       </c>
       <c r="AL5">
         <v>0</v>
@@ -1076,13 +1064,13 @@
         </is>
       </c>
       <c r="D6">
-        <v>0.128</v>
+        <v>0.172</v>
       </c>
       <c r="E6">
-        <v>0.105</v>
+        <v>0.125</v>
       </c>
       <c r="F6">
-        <v>0.19</v>
+        <v>0.177</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -1097,10 +1085,10 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>894.3</v>
+        <v>743</v>
       </c>
       <c r="L6">
-        <v>0.3633002924926877</v>
+        <v>0.3095704345652265</v>
       </c>
       <c r="M6">
         <v>-0</v>
@@ -1124,55 +1112,55 @@
         <v>0</v>
       </c>
       <c r="U6">
-        <v>4069.1</v>
+        <v>4140.1</v>
       </c>
       <c r="V6">
-        <v>0.5741396582619616</v>
+        <v>0.8532066606215483</v>
       </c>
       <c r="W6">
-        <v>0.1245907577425152</v>
+        <v>0.08145143608857706</v>
       </c>
       <c r="X6">
-        <v>0.1149284613312211</v>
+        <v>0.1692909428675529</v>
       </c>
       <c r="Y6">
-        <v>0.009662296411294111</v>
+        <v>-0.08783950677897583</v>
       </c>
       <c r="Z6">
-        <v>0.1237606837606838</v>
+        <v>0.1302752492767311</v>
       </c>
       <c r="AA6">
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.0764374239677843</v>
+        <v>0.08575053842295738</v>
       </c>
       <c r="AC6">
-        <v>-0.0764374239677843</v>
+        <v>-0.08575053842295738</v>
       </c>
       <c r="AD6">
-        <v>13370.4</v>
+        <v>14596.8</v>
       </c>
       <c r="AE6">
         <v>0</v>
       </c>
       <c r="AF6">
-        <v>13370.4</v>
+        <v>14596.8</v>
       </c>
       <c r="AG6">
-        <v>9301.299999999999</v>
+        <v>10456.7</v>
       </c>
       <c r="AH6">
-        <v>0.6535632060300033</v>
+        <v>0.7505090183657941</v>
       </c>
       <c r="AI6">
-        <v>0.5944407888886912</v>
+        <v>0.6563515938001646</v>
       </c>
       <c r="AJ6">
-        <v>0.5675469533700255</v>
+        <v>0.6830381929701942</v>
       </c>
       <c r="AK6">
-        <v>0.5048661206189987</v>
+        <v>0.5777437676803395</v>
       </c>
       <c r="AL6">
         <v>0</v>
@@ -1189,7 +1177,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Sekerbank T.A.S. (IBSE:SKBNK)</t>
+          <t>Turkiye Garanti Bankasi A.S. (IBSE:GARAN)</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1198,7 +1186,13 @@
         </is>
       </c>
       <c r="D7">
-        <v>-0.0659</v>
+        <v>0.181</v>
+      </c>
+      <c r="E7">
+        <v>0.132</v>
+      </c>
+      <c r="F7">
+        <v>0.176</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -1213,10 +1207,10 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>-52.8</v>
+        <v>830.7</v>
       </c>
       <c r="L7">
-        <v>-0.3972911963882618</v>
+        <v>0.257997391142307</v>
       </c>
       <c r="M7">
         <v>-0</v>
@@ -1225,7 +1219,7 @@
         <v>-0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P7">
         <v>-0</v>
@@ -1234,61 +1228,61 @@
         <v>-0</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S7">
         <v>0</v>
       </c>
       <c r="U7">
-        <v>660.6</v>
+        <v>6891.4</v>
       </c>
       <c r="V7">
-        <v>2.591604550804237</v>
+        <v>1.175064368168875</v>
       </c>
       <c r="W7">
-        <v>-0.131637995512341</v>
+        <v>0.0909588621108763</v>
       </c>
       <c r="X7">
-        <v>0.1543049525142534</v>
+        <v>0.1314803013215506</v>
       </c>
       <c r="Y7">
-        <v>-0.2859429480265944</v>
+        <v>-0.04052143921067426</v>
       </c>
       <c r="Z7">
-        <v>0.1375491616642517</v>
+        <v>0.2162149820772164</v>
       </c>
       <c r="AA7">
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.0794886198750058</v>
+        <v>0.08628744318701691</v>
       </c>
       <c r="AC7">
-        <v>-0.0794886198750058</v>
+        <v>-0.08628744318701691</v>
       </c>
       <c r="AD7">
-        <v>813.1</v>
+        <v>11443.9</v>
       </c>
       <c r="AE7">
         <v>0</v>
       </c>
       <c r="AF7">
-        <v>813.1</v>
+        <v>11443.9</v>
       </c>
       <c r="AG7">
-        <v>152.5</v>
+        <v>4552.5</v>
       </c>
       <c r="AH7">
-        <v>0.7613295880149813</v>
+        <v>0.6611684364997747</v>
       </c>
       <c r="AI7">
-        <v>0.6791113338344609</v>
+        <v>0.5925429240105212</v>
       </c>
       <c r="AJ7">
-        <v>0.3743249877270496</v>
+        <v>0.4370176246976155</v>
       </c>
       <c r="AK7">
-        <v>0.2841438419973915</v>
+        <v>0.366492778824325</v>
       </c>
       <c r="AL7">
         <v>0</v>
@@ -1305,7 +1299,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Türkiye Sinai Kalkinma Bankasi A.S. (IBSE:TSKB)</t>
+          <t>Yapi ve Kredi Bankasi A.S. (IBSE:YKBNK)</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -1314,10 +1308,13 @@
         </is>
       </c>
       <c r="D8">
-        <v>0.147</v>
+        <v>0.159</v>
       </c>
       <c r="E8">
-        <v>0.166</v>
+        <v>0.171</v>
+      </c>
+      <c r="F8">
+        <v>0.222</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -1332,85 +1329,82 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>144.8</v>
+        <v>593.2</v>
       </c>
       <c r="L8">
-        <v>0.6648301193755739</v>
+        <v>0.3080758244611789</v>
       </c>
       <c r="M8">
-        <v>0.024</v>
+        <v>-0</v>
       </c>
       <c r="N8">
-        <v>4.214963119072708e-05</v>
+        <v>-0</v>
       </c>
       <c r="O8">
-        <v>0.0001657458563535911</v>
+        <v>-0</v>
       </c>
       <c r="P8">
-        <v>0.024</v>
+        <v>-0</v>
       </c>
       <c r="Q8">
-        <v>4.214963119072708e-05</v>
+        <v>-0</v>
       </c>
       <c r="R8">
-        <v>0.0001657458563535911</v>
+        <v>-0</v>
       </c>
       <c r="S8">
         <v>0</v>
       </c>
-      <c r="T8">
-        <v>0</v>
-      </c>
       <c r="U8">
-        <v>357.1</v>
+        <v>6045.9</v>
       </c>
       <c r="V8">
-        <v>0.6271513874253601</v>
+        <v>1.725772842748266</v>
       </c>
       <c r="W8">
-        <v>0.2332098566596876</v>
+        <v>0.08328302469569125</v>
       </c>
       <c r="X8">
-        <v>0.3916792983921847</v>
+        <v>0.240865478465188</v>
       </c>
       <c r="Y8">
-        <v>-0.1584694417324971</v>
+        <v>-0.1575824537694968</v>
       </c>
       <c r="Z8">
-        <v>0.0305519851566168</v>
+        <v>0.134636226969199</v>
       </c>
       <c r="AA8">
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.08389587155374099</v>
+        <v>0.08841600685017924</v>
       </c>
       <c r="AC8">
-        <v>-0.08389587155374099</v>
+        <v>-0.08841600685017924</v>
       </c>
       <c r="AD8">
-        <v>6290.1</v>
+        <v>17547.1</v>
       </c>
       <c r="AE8">
         <v>0</v>
       </c>
       <c r="AF8">
-        <v>6290.1</v>
+        <v>17547.1</v>
       </c>
       <c r="AG8">
-        <v>5933</v>
+        <v>11501.2</v>
       </c>
       <c r="AH8">
-        <v>0.9169910343319484</v>
+        <v>0.8335756090145555</v>
       </c>
       <c r="AI8">
-        <v>0.8788001564770314</v>
+        <v>0.7434581815100415</v>
       </c>
       <c r="AJ8">
-        <v>0.9124323326771654</v>
+        <v>0.7665167116531706</v>
       </c>
       <c r="AK8">
-        <v>0.8724358503051246</v>
+        <v>0.6551113288258782</v>
       </c>
       <c r="AL8">
         <v>0</v>
@@ -1427,7 +1421,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Türkiye Halk Bankasi A.S. (IBSE:HALKB)</t>
+          <t>Türkiye Vakiflar Bankasi Türk Anonim Ortakligi (IBSE:VAKBN)</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -1436,13 +1430,13 @@
         </is>
       </c>
       <c r="D9">
-        <v>0.079</v>
+        <v>0.208</v>
       </c>
       <c r="E9">
-        <v>-0.08929999999999999</v>
+        <v>0.277</v>
       </c>
       <c r="F9">
-        <v>0.141</v>
+        <v>0.277</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -1457,10 +1451,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>284.6</v>
+        <v>886.4</v>
       </c>
       <c r="L9">
-        <v>0.1717665519946889</v>
+        <v>0.3834241716411454</v>
       </c>
       <c r="M9">
         <v>-0</v>
@@ -1484,55 +1478,55 @@
         <v>0</v>
       </c>
       <c r="U9">
-        <v>2770.8</v>
+        <v>3656.5</v>
       </c>
       <c r="V9">
-        <v>2.231816351188079</v>
+        <v>1.476180863948324</v>
       </c>
       <c r="W9">
-        <v>0.0597158983612749</v>
+        <v>0.1606612049590372</v>
       </c>
       <c r="X9">
-        <v>0.5185245856558957</v>
+        <v>0.4128950158573248</v>
       </c>
       <c r="Y9">
-        <v>-0.4588086872946208</v>
+        <v>-0.2522338108982876</v>
       </c>
       <c r="Z9">
-        <v>0.09671431656733928</v>
+        <v>0.1091021840730066</v>
       </c>
       <c r="AA9">
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.08450327694484319</v>
+        <v>0.09078984785296684</v>
       </c>
       <c r="AC9">
-        <v>-0.08450327694484319</v>
+        <v>-0.09078984785296684</v>
       </c>
       <c r="AD9">
-        <v>18927.2</v>
+        <v>24317</v>
       </c>
       <c r="AE9">
         <v>0</v>
       </c>
       <c r="AF9">
-        <v>18927.2</v>
+        <v>24317</v>
       </c>
       <c r="AG9">
-        <v>16156.4</v>
+        <v>20660.5</v>
       </c>
       <c r="AH9">
-        <v>0.9384442229791707</v>
+        <v>0.9075539299843248</v>
       </c>
       <c r="AI9">
-        <v>0.7766375196444911</v>
+        <v>0.8051853446134998</v>
       </c>
       <c r="AJ9">
-        <v>0.9286408129716806</v>
+        <v>0.8929443544030254</v>
       </c>
       <c r="AK9">
-        <v>0.7479849443747425</v>
+        <v>0.7783491561181435</v>
       </c>
       <c r="AL9">
         <v>0</v>
@@ -1549,7 +1543,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Türkiye Is Bankasi A.S. (IBSE:ISCTR)</t>
+          <t>Türkiye Halk Bankasi A.S. (IBSE:HALKB)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -1558,13 +1552,13 @@
         </is>
       </c>
       <c r="D10">
-        <v>0.243</v>
+        <v>0.132</v>
       </c>
       <c r="E10">
-        <v>0.132</v>
+        <v>0.149</v>
       </c>
       <c r="F10">
-        <v>0.063</v>
+        <v>0.448</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -1579,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1044.5</v>
+        <v>533.4</v>
       </c>
       <c r="L10">
-        <v>0.1482401362475163</v>
+        <v>0.3382157123834887</v>
       </c>
       <c r="M10">
         <v>-0</v>
@@ -1606,55 +1600,55 @@
         <v>0</v>
       </c>
       <c r="U10">
-        <v>8140.7</v>
+        <v>3664.2</v>
       </c>
       <c r="V10">
-        <v>1.620846192135391</v>
+        <v>1.978509719222462</v>
       </c>
       <c r="W10">
-        <v>0.134192404542885</v>
+        <v>0.09888765294771969</v>
       </c>
       <c r="X10">
-        <v>0.2011612467288237</v>
+        <v>0.4455328093486375</v>
       </c>
       <c r="Y10">
-        <v>-0.06696884218593871</v>
+        <v>-0.3466451564009178</v>
       </c>
       <c r="Z10">
-        <v>0.2212472397083216</v>
+        <v>0.07318193629816615</v>
       </c>
       <c r="AA10">
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.09426123825733401</v>
+        <v>0.09102056379156973</v>
       </c>
       <c r="AC10">
-        <v>-0.09426123825733401</v>
+        <v>-0.09102056379156973</v>
       </c>
       <c r="AD10">
-        <v>23810.7</v>
+        <v>19870.8</v>
       </c>
       <c r="AE10">
         <v>0</v>
       </c>
       <c r="AF10">
-        <v>23810.7</v>
+        <v>19870.8</v>
       </c>
       <c r="AG10">
-        <v>15670</v>
+        <v>16206.6</v>
       </c>
       <c r="AH10">
-        <v>0.8258084430448234</v>
+        <v>0.9147439556594914</v>
       </c>
       <c r="AI10">
-        <v>0.6871318786920348</v>
+        <v>0.7850192592592592</v>
       </c>
       <c r="AJ10">
-        <v>0.75727920744231</v>
+        <v>0.8974449846610479</v>
       </c>
       <c r="AK10">
-        <v>0.5910620256793253</v>
+        <v>0.7486315322681226</v>
       </c>
       <c r="AL10">
         <v>0</v>
@@ -1671,7 +1665,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Yapi ve Kredi Bankasi A.S. (IBSE:YKBNK)</t>
+          <t>Türkiye Is Bankasi A.S. (IBSE:ISCTR)</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1680,13 +1674,13 @@
         </is>
       </c>
       <c r="D11">
-        <v>0.134</v>
+        <v>0.167</v>
       </c>
       <c r="E11">
-        <v>0.174</v>
+        <v>0.166</v>
       </c>
       <c r="F11">
-        <v>0.163</v>
+        <v>0.171</v>
       </c>
       <c r="G11">
         <v>0</v>
@@ -1701,19 +1695,19 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>782.6</v>
+        <v>960.1</v>
       </c>
       <c r="L11">
-        <v>0.3619294269990288</v>
+        <v>0.2260707810402882</v>
       </c>
       <c r="M11">
-        <v>0.001</v>
+        <v>-0</v>
       </c>
       <c r="N11">
-        <v>2.840424927569165e-07</v>
+        <v>-0</v>
       </c>
       <c r="O11">
-        <v>1.277791975466394e-06</v>
+        <v>-0</v>
       </c>
       <c r="P11">
         <v>-0</v>
@@ -1725,61 +1719,58 @@
         <v>-0</v>
       </c>
       <c r="S11">
-        <v>0.001</v>
-      </c>
-      <c r="T11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U11">
-        <v>10666.3</v>
+        <v>8271</v>
       </c>
       <c r="V11">
-        <v>3.029682440493098</v>
+        <v>1.949971708789136</v>
       </c>
       <c r="W11">
-        <v>0.1167119038386972</v>
+        <v>0.09951182098029664</v>
       </c>
       <c r="X11">
-        <v>0.2125583894038248</v>
+        <v>0.259452813654649</v>
       </c>
       <c r="Y11">
-        <v>-0.09584648556512768</v>
+        <v>-0.1599409926743524</v>
       </c>
       <c r="Z11">
-        <v>0.1098523143514685</v>
+        <v>0.1677838362324827</v>
       </c>
       <c r="AA11">
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.09473373444816879</v>
+        <v>0.1090528973505509</v>
       </c>
       <c r="AC11">
-        <v>-0.09473373444816879</v>
+        <v>-0.1090528973505509</v>
       </c>
       <c r="AD11">
-        <v>18018.6</v>
+        <v>23448.7</v>
       </c>
       <c r="AE11">
         <v>0</v>
       </c>
       <c r="AF11">
-        <v>18018.6</v>
+        <v>23448.7</v>
       </c>
       <c r="AG11">
-        <v>7352.299999999999</v>
+        <v>15177.7</v>
       </c>
       <c r="AH11">
-        <v>0.8365491754568415</v>
+        <v>0.8468200055615143</v>
       </c>
       <c r="AI11">
-        <v>0.7166903991026753</v>
+        <v>0.7165859889740487</v>
       </c>
       <c r="AJ11">
-        <v>0.6762041405696732</v>
+        <v>0.7815781207355568</v>
       </c>
       <c r="AK11">
-        <v>0.5079274063737038</v>
+        <v>0.620719129062073</v>
       </c>
       <c r="AL11">
         <v>0</v>
@@ -1805,7 +1796,10 @@
         </is>
       </c>
       <c r="D12">
-        <v>0.0328</v>
+        <v>0.09910000000000001</v>
+      </c>
+      <c r="E12">
+        <v>-0.0442</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -1820,10 +1814,10 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>-34.9</v>
+        <v>28.7</v>
       </c>
       <c r="L12">
-        <v>-0.2024361948955916</v>
+        <v>0.1424317617866005</v>
       </c>
       <c r="M12">
         <v>-0</v>
@@ -1832,7 +1826,7 @@
         <v>-0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="P12">
         <v>-0</v>
@@ -1841,188 +1835,66 @@
         <v>-0</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>-0</v>
       </c>
       <c r="S12">
         <v>0</v>
       </c>
       <c r="U12">
-        <v>1319.9</v>
+        <v>1058.9</v>
       </c>
       <c r="V12">
-        <v>3.802650532987612</v>
+        <v>3.002268216614687</v>
       </c>
       <c r="W12">
-        <v>-0.05966831937083262</v>
+        <v>0.04951690821256038</v>
       </c>
       <c r="X12">
-        <v>0.1522327963744903</v>
+        <v>0.1887184192354864</v>
       </c>
       <c r="Y12">
-        <v>-0.2119011157453229</v>
+        <v>-0.139201511022926</v>
       </c>
       <c r="Z12">
-        <v>0.1356412273800157</v>
+        <v>0.5884362780456324</v>
       </c>
       <c r="AA12">
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>0.09539699885389694</v>
+        <v>0.1102591600097195</v>
       </c>
       <c r="AC12">
-        <v>-0.09539699885389694</v>
+        <v>-0.1102591600097195</v>
       </c>
       <c r="AD12">
-        <v>1083.4</v>
+        <v>1252.5</v>
       </c>
       <c r="AE12">
         <v>0</v>
       </c>
       <c r="AF12">
-        <v>1083.4</v>
+        <v>1252.5</v>
       </c>
       <c r="AG12">
-        <v>-236.5</v>
+        <v>193.5999999999999</v>
       </c>
       <c r="AH12">
-        <v>0.7573575672841665</v>
+        <v>0.7802766010465986</v>
       </c>
       <c r="AI12">
-        <v>0.6389101845845374</v>
+        <v>0.6978882264445311</v>
       </c>
       <c r="AJ12">
-        <v>-2.138336347197106</v>
+        <v>0.354384038074318</v>
       </c>
       <c r="AK12">
-        <v>-0.6293241085683875</v>
+        <v>0.2631149768958955</v>
       </c>
       <c r="AL12">
         <v>0</v>
       </c>
       <c r="AM12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>Turkey</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Türkiye Vakiflar Bankasi Türk Anonim Ortakligi (IBSE:VAKBN)</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Bank (Money Center)</t>
-        </is>
-      </c>
-      <c r="D13">
-        <v>0.175</v>
-      </c>
-      <c r="E13">
-        <v>0.168</v>
-      </c>
-      <c r="F13">
-        <v>0.00633</v>
-      </c>
-      <c r="G13">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>0</v>
-      </c>
-      <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
-      </c>
-      <c r="K13">
-        <v>583.8</v>
-      </c>
-      <c r="L13">
-        <v>0.2568863856375957</v>
-      </c>
-      <c r="M13">
-        <v>-0</v>
-      </c>
-      <c r="N13">
-        <v>-0</v>
-      </c>
-      <c r="O13">
-        <v>-0</v>
-      </c>
-      <c r="P13">
-        <v>-0</v>
-      </c>
-      <c r="Q13">
-        <v>-0</v>
-      </c>
-      <c r="R13">
-        <v>-0</v>
-      </c>
-      <c r="S13">
-        <v>0</v>
-      </c>
-      <c r="U13">
-        <v>4505.6</v>
-      </c>
-      <c r="V13">
-        <v>1.946263498920087</v>
-      </c>
-      <c r="W13">
-        <v>0.1309174085618819</v>
-      </c>
-      <c r="X13">
-        <v>0.3212949389029972</v>
-      </c>
-      <c r="Y13">
-        <v>-0.1903775303411153</v>
-      </c>
-      <c r="Z13">
-        <v>0.1105959655783075</v>
-      </c>
-      <c r="AA13">
-        <v>0</v>
-      </c>
-      <c r="AB13">
-        <v>0.09739697245054466</v>
-      </c>
-      <c r="AC13">
-        <v>-0.09739697245054466</v>
-      </c>
-      <c r="AD13">
-        <v>20180.3</v>
-      </c>
-      <c r="AE13">
-        <v>0</v>
-      </c>
-      <c r="AF13">
-        <v>20180.3</v>
-      </c>
-      <c r="AG13">
-        <v>15674.7</v>
-      </c>
-      <c r="AH13">
-        <v>0.8970896142749819</v>
-      </c>
-      <c r="AI13">
-        <v>0.7806843459254531</v>
-      </c>
-      <c r="AJ13">
-        <v>0.8713152526167752</v>
-      </c>
-      <c r="AK13">
-        <v>0.7343878110373456</v>
-      </c>
-      <c r="AL13">
-        <v>0</v>
-      </c>
-      <c r="AM13">
         <v>0</v>
       </c>
     </row>

--- a/teaching/traditional_assets/database/data/turkey/turkey_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/turkey/turkey_bank_money_center.xlsx
@@ -648,10 +648,10 @@
         <v>0.08712094340328377</v>
       </c>
       <c r="X2">
-        <v>0.1790046810515197</v>
+        <v>0.1806907185664647</v>
       </c>
       <c r="Y2">
-        <v>-0.0918837376482359</v>
+        <v>-0.09356977516318091</v>
       </c>
       <c r="Z2">
         <v>0.1352626121234747</v>
@@ -660,10 +660,10 @@
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.08735172501859807</v>
+        <v>0.08384283964516498</v>
       </c>
       <c r="AC2">
-        <v>-0.08735172501859807</v>
+        <v>-0.08384283964516498</v>
       </c>
       <c r="AD2">
         <v>123633.6</v>
@@ -767,10 +767,10 @@
         <v>0.1281804575582638</v>
       </c>
       <c r="X3">
-        <v>0.07190161705825673</v>
+        <v>0.06821556785261536</v>
       </c>
       <c r="Y3">
-        <v>0.05627884050000712</v>
+        <v>0.05996488970564849</v>
       </c>
       <c r="Z3">
         <v>0.106447650573564</v>
@@ -779,10 +779,10 @@
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.07257402765932777</v>
+        <v>0.06858016103713035</v>
       </c>
       <c r="AC3">
-        <v>-0.07257402765932777</v>
+        <v>-0.06858016103713035</v>
       </c>
       <c r="AD3">
         <v>9077.200000000001</v>
@@ -883,10 +883,10 @@
         <v>-0.137037037037037</v>
       </c>
       <c r="X4">
-        <v>0.129320396423773</v>
+        <v>0.128514364377689</v>
       </c>
       <c r="Y4">
-        <v>-0.26635743346081</v>
+        <v>-0.265551401414726</v>
       </c>
       <c r="Z4">
         <v>0.2297832233741754</v>
@@ -895,10 +895,10 @@
         <v>0</v>
       </c>
       <c r="AB4">
-        <v>0.08265669810736317</v>
+        <v>0.07906163593284338</v>
       </c>
       <c r="AC4">
-        <v>-0.08265669810736317</v>
+        <v>-0.07906163593284338</v>
       </c>
       <c r="AD4">
         <v>714.4</v>
@@ -999,10 +999,10 @@
         <v>0.0595446584938704</v>
       </c>
       <c r="X5">
-        <v>0.1265580403251879</v>
+        <v>0.125613453732096</v>
       </c>
       <c r="Y5">
-        <v>-0.06701338183131746</v>
+        <v>-0.06606879523822558</v>
       </c>
       <c r="Z5">
         <v>0.2397899649941657</v>
@@ -1011,10 +1011,10 @@
         <v>0</v>
       </c>
       <c r="AB5">
-        <v>0.08567052455282458</v>
+        <v>0.08206669324416022</v>
       </c>
       <c r="AC5">
-        <v>-0.08567052455282458</v>
+        <v>-0.08206669324416022</v>
       </c>
       <c r="AD5">
         <v>1365.2</v>
@@ -1121,10 +1121,10 @@
         <v>0.08145143608857706</v>
       </c>
       <c r="X6">
-        <v>0.1692909428675529</v>
+        <v>0.1704897576835411</v>
       </c>
       <c r="Y6">
-        <v>-0.08783950677897583</v>
+        <v>-0.08903832159496401</v>
       </c>
       <c r="Z6">
         <v>0.1302752492767311</v>
@@ -1133,10 +1133,10 @@
         <v>0</v>
       </c>
       <c r="AB6">
-        <v>0.08575053842295738</v>
+        <v>0.08224455118508134</v>
       </c>
       <c r="AC6">
-        <v>-0.08575053842295738</v>
+        <v>-0.08224455118508134</v>
       </c>
       <c r="AD6">
         <v>14596.8</v>
@@ -1243,10 +1243,10 @@
         <v>0.0909588621108763</v>
       </c>
       <c r="X7">
-        <v>0.1314803013215506</v>
+        <v>0.1307826060119376</v>
       </c>
       <c r="Y7">
-        <v>-0.04052143921067426</v>
+        <v>-0.03982374390106132</v>
       </c>
       <c r="Z7">
         <v>0.2162149820772164</v>
@@ -1255,10 +1255,10 @@
         <v>0</v>
       </c>
       <c r="AB7">
-        <v>0.08628744318701691</v>
+        <v>0.08269891802136012</v>
       </c>
       <c r="AC7">
-        <v>-0.08628744318701691</v>
+        <v>-0.08269891802136012</v>
       </c>
       <c r="AD7">
         <v>11443.9</v>
@@ -1365,10 +1365,10 @@
         <v>0.08328302469569125</v>
       </c>
       <c r="X8">
-        <v>0.240865478465188</v>
+        <v>0.2456543363469879</v>
       </c>
       <c r="Y8">
-        <v>-0.1575824537694968</v>
+        <v>-0.1623713116512966</v>
       </c>
       <c r="Z8">
         <v>0.134636226969199</v>
@@ -1377,10 +1377,10 @@
         <v>0</v>
       </c>
       <c r="AB8">
-        <v>0.08841600685017924</v>
+        <v>0.08498676126896983</v>
       </c>
       <c r="AC8">
-        <v>-0.08841600685017924</v>
+        <v>-0.08498676126896983</v>
       </c>
       <c r="AD8">
         <v>17547.1</v>
@@ -1487,10 +1487,10 @@
         <v>0.1606612049590372</v>
       </c>
       <c r="X9">
-        <v>0.4128950158573248</v>
+        <v>0.4263125493242699</v>
       </c>
       <c r="Y9">
-        <v>-0.2522338108982876</v>
+        <v>-0.2656513443652327</v>
       </c>
       <c r="Z9">
         <v>0.1091021840730066</v>
@@ -1499,10 +1499,10 @@
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0.09078984785296684</v>
+        <v>0.08742894766626919</v>
       </c>
       <c r="AC9">
-        <v>-0.09078984785296684</v>
+        <v>-0.08742894766626919</v>
       </c>
       <c r="AD9">
         <v>24317</v>
@@ -1609,10 +1609,10 @@
         <v>0.09888765294771969</v>
       </c>
       <c r="X10">
-        <v>0.4455328093486375</v>
+        <v>0.4605873926857427</v>
       </c>
       <c r="Y10">
-        <v>-0.3466451564009178</v>
+        <v>-0.361699739738023</v>
       </c>
       <c r="Z10">
         <v>0.07318193629816615</v>
@@ -1621,10 +1621,10 @@
         <v>0</v>
       </c>
       <c r="AB10">
-        <v>0.09102056379156973</v>
+        <v>0.08766630616089224</v>
       </c>
       <c r="AC10">
-        <v>-0.09102056379156973</v>
+        <v>-0.08766630616089224</v>
       </c>
       <c r="AD10">
         <v>19870.8</v>
@@ -1731,10 +1731,10 @@
         <v>0.09951182098029664</v>
       </c>
       <c r="X11">
-        <v>0.259452813654649</v>
+        <v>0.2651739770449885</v>
       </c>
       <c r="Y11">
-        <v>-0.1599409926743524</v>
+        <v>-0.1656621560646918</v>
       </c>
       <c r="Z11">
         <v>0.1677838362324827</v>
@@ -1743,10 +1743,10 @@
         <v>0</v>
       </c>
       <c r="AB11">
-        <v>0.1090528973505509</v>
+        <v>0.1056358876986679</v>
       </c>
       <c r="AC11">
-        <v>-0.1090528973505509</v>
+        <v>-0.1056358876986679</v>
       </c>
       <c r="AD11">
         <v>23448.7</v>
@@ -1850,10 +1850,10 @@
         <v>0.04951690821256038</v>
       </c>
       <c r="X12">
-        <v>0.1887184192354864</v>
+        <v>0.1908916794493883</v>
       </c>
       <c r="Y12">
-        <v>-0.139201511022926</v>
+        <v>-0.1413747712368279</v>
       </c>
       <c r="Z12">
         <v>0.5884362780456324</v>
@@ -1862,10 +1862,10 @@
         <v>0</v>
       </c>
       <c r="AB12">
-        <v>0.1102591600097195</v>
+        <v>0.1067806737634219</v>
       </c>
       <c r="AC12">
-        <v>-0.1102591600097195</v>
+        <v>-0.1067806737634219</v>
       </c>
       <c r="AD12">
         <v>1252.5</v>
